--- a/Test Case Swiftdynamics - Napason Jirapornpanich.xlsx
+++ b/Test Case Swiftdynamics - Napason Jirapornpanich.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automate\test_codenboxautomationlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{208C194F-4BE7-4EE8-B2FB-4610A4061330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B87E6F-79E6-48C0-B792-117C7A1DC108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0D963123-C641-4E21-B3BA-2AAA429E0012}"/>
   </bookViews>
@@ -142,11 +142,6 @@
 2.คลิก Company</t>
   </si>
   <si>
-    <t>แสดงข้อมูลในหน้า Company โดยมีข้อมูลดังนี้
-- Why Swift Dynamics?
-- Maps , Address , Tel , Business Hours</t>
-  </si>
-  <si>
     <t>Contact Us</t>
   </si>
   <si>
@@ -163,11 +158,6 @@
   <si>
     <t>1.เข้าหน้า website www.swiftdynamics.co.th
 2.คลิก Careers+</t>
-  </si>
-  <si>
-    <t>แสดงข้อมูลในหน้า Careers+ โดยมีข้อมูลดังนี้
-- Life at Swift Dynamics
-- LOOKING FOR THE RIGHT POSITION</t>
   </si>
   <si>
     <t>Building &amp; Real Estate</t>
@@ -265,9 +255,6 @@
 - Asset Management</t>
   </si>
   <si>
-    <t>ระบบแสดงข้อมูลรายการ News&amp;Update ล่าสุด</t>
-  </si>
-  <si>
     <t>CUSTOMER EXPERIENCE</t>
   </si>
   <si>
@@ -286,6 +273,26 @@
   </si>
   <si>
     <t>ระบบไปยังข้อมูลหน้าของ Careers+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">แสดงข้อมูลในหน้า Careers+ โดยมีข้อมูลดังนี้
+- Life at Swift Dynamics
+    - แสดงรูปภาพ , ชื่อ และตำแหน่งการทำงานของแต่ละท่าน
+- LOOKING FOR THE RIGHT POSITION
+    - เมื่อกดเข้าไปจะแสดงตำแหน่งงานที่เปิดรับสมัคร
+</t>
+  </si>
+  <si>
+    <t>แสดงข้อมูลในหน้า Company โดยมีข้อมูลดังนี้
+- Why Swift Dynamics?
+   - แสดงรายละเอียดข้อมูล
+- แสดงรูปภาพ คำคม ชื่อและตำแหน่งงาน
+- Maps , Address , Tel , Business Hours
+   - แสดงรูปภาพแผนที่ ที่อยู่แผนที่ เบอร์โทรติดต่อ และเวลาเปิด-ปิด ทำการ</t>
+  </si>
+  <si>
+    <t>ระบบแสดงข้อมูลรายการ News&amp;Update ล่าสุด
+- แสดงรูปภาพ หัวข้อข่าว วันที่ และ รายละเอียดเพิ่มเติมของข่าว</t>
   </si>
 </sst>
 </file>
@@ -697,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6040F4C-2071-4E64-B0D6-678236DA0A48}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:C20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -797,68 +804,68 @@
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1">
       <c r="A9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1">
       <c r="A10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1">
       <c r="A11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1">
       <c r="A13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1">
       <c r="A14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1">
@@ -868,8 +875,8 @@
       <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>52</v>
+      <c r="C15" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1">
@@ -880,51 +887,51 @@
         <v>26</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1">
       <c r="A17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1">
       <c r="A18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="C18" s="7" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1">
       <c r="A19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="C19" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1">
       <c r="A20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1"/>

--- a/Test Case Swiftdynamics - Napason Jirapornpanich.xlsx
+++ b/Test Case Swiftdynamics - Napason Jirapornpanich.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automate\test_codenboxautomationlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B87E6F-79E6-48C0-B792-117C7A1DC108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3B0115-69B3-49FC-8EB9-76762C11DB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0D963123-C641-4E21-B3BA-2AAA429E0012}"/>
   </bookViews>
@@ -71,7 +71,172 @@
     <t>Sitearound IoT</t>
   </si>
   <si>
-    <t>ระบบแสดงผลข้อมูลเกี่ยวกับ Sitearound IoT ดังนี้
+    <t xml:space="preserve">Sitearound CM </t>
+  </si>
+  <si>
+    <t>1.เข้าหน้า website www.swiftdynamics.co.th
+2.คลิก Services+
+3.เลือก Sitearound IoT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.เข้าหน้า website www.swiftdynamics.co.th
+2.คลิก Services+
+3.เลือก Sitearound CM 
+</t>
+  </si>
+  <si>
+    <t>ระบบไปยังหน้า website www.sitearound.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sitearound FM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.เข้าหน้า website www.swiftdynamics.co.th
+2.คลิก Services+
+3.เลือก Sitearound FM 
+</t>
+  </si>
+  <si>
+    <t>ระบบไปยังหน้า website www.sitearoundfm.com</t>
+  </si>
+  <si>
+    <t>USE CASES+</t>
+  </si>
+  <si>
+    <t>เมื่อชี้ไปที่ USE CASES+ ระบบแสดงหน้าเมนูเพิ่มเติมดังนี้
+1. Building &amp; Real Estate
+2. Industry 4.0
+3. Warehouse &amp; Logistics
+4. Agriculture
+5. Construction
+6. Healthcare</t>
+  </si>
+  <si>
+    <t>News&amp;Update</t>
+  </si>
+  <si>
+    <t>1.เข้าหน้า website www.swiftdynamics.co.th
+2.คลิก News&amp;Update</t>
+  </si>
+  <si>
+    <t>1.เข้าหน้า website www.swiftdynamics.co.th
+2.USE CASES+</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>1.เข้าหน้า website www.swiftdynamics.co.th
+2.คลิก Company</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
+  </si>
+  <si>
+    <t>1.เข้าหน้า website www.swiftdynamics.co.th
+2.คลิก Contact Us</t>
+  </si>
+  <si>
+    <t>ระบบแสดง form กรอกข้อมูล โดยมีข้อมูลให้กรอกดังนี้
+Name , E-mail , Phone Number , Company Name , Subject , Message</t>
+  </si>
+  <si>
+    <t>Careers+</t>
+  </si>
+  <si>
+    <t>1.เข้าหน้า website www.swiftdynamics.co.th
+2.คลิก Careers+</t>
+  </si>
+  <si>
+    <t>Building &amp; Real Estate</t>
+  </si>
+  <si>
+    <t>1.เข้าหน้า website www.swiftdynamics.co.th
+2.คลิก USE CASES+
+3.เลือก Building &amp; Real Estate</t>
+  </si>
+  <si>
+    <t>Industry 4.0</t>
+  </si>
+  <si>
+    <t>1.เข้าหน้า website www.swiftdynamics.co.th
+2.คลิก USE CASES+
+3.เลือก Industry 4.0</t>
+  </si>
+  <si>
+    <t>Warehouse &amp; Logistics</t>
+  </si>
+  <si>
+    <t>1.เข้าหน้า website www.swiftdynamics.co.th
+2.คลิก USE CASES+
+3.เลือก Warehouse &amp; Logistics</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>1.เข้าหน้า website www.swiftdynamics.co.th
+2.คลิก USE CASES+
+3.เลือก Agriculture</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>1.เข้าหน้า website www.swiftdynamics.co.th
+2.คลิก USE CASES+
+3.เลือก Construction</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>1.เข้าหน้า website www.swiftdynamics.co.th
+2.คลิก USE CASES+
+3.เลือก Healthcare</t>
+  </si>
+  <si>
+    <t>CUSTOMER EXPERIENCE</t>
+  </si>
+  <si>
+    <t>ระบบไปยังข้อมูลหน้าของ USE CASES+</t>
+  </si>
+  <si>
+    <t>ORGANIZATIONAL CULTURE</t>
+  </si>
+  <si>
+    <t>1.เข้าหน้า website www.swiftdynamics.co.th
+2.คลิก Customer Experience</t>
+  </si>
+  <si>
+    <t>1.เข้าหน้า website www.swiftdynamics.co.th
+2.คลิก Organizational Culture</t>
+  </si>
+  <si>
+    <t>ระบบไปยังข้อมูลหน้าของ Careers+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">แสดงข้อมูลในหน้า Careers+ โดยมีข้อมูลดังนี้
+- Life at Swift Dynamics
+    - แสดงรูปภาพ , ชื่อ และตำแหน่งการทำงานของแต่ละท่าน
+- LOOKING FOR THE RIGHT POSITION
+    - เมื่อกดเข้าไปจะแสดงตำแหน่งงานที่เปิดรับสมัคร
+</t>
+  </si>
+  <si>
+    <t>แสดงข้อมูลในหน้า Company โดยมีข้อมูลดังนี้
+- Why Swift Dynamics?
+   - แสดงรายละเอียดข้อมูล
+- แสดงรูปภาพ คำคม ชื่อและตำแหน่งงาน
+- Maps , Address , Tel , Business Hours
+   - แสดงรูปภาพแผนที่ ที่อยู่แผนที่ เบอร์โทรติดต่อ และเวลาเปิด-ปิด ทำการ</t>
+  </si>
+  <si>
+    <t>ระบบแสดงข้อมูลรายการ News&amp;Update ล่าสุด
+- แสดงรูปภาพ หัวข้อข่าว วันที่ และ รายละเอียดเพิ่มเติมของข่าว</t>
+  </si>
+  <si>
+    <t>ระบบแสดงรายละเอียดข้อมูลเกี่ยวกับ Sitearound IoT ดังนี้
 1. About Sitearound IoT
 2. Our Solutions
 3. Our Platform
@@ -83,92 +248,7 @@
 9. Smart Farm</t>
   </si>
   <si>
-    <t xml:space="preserve">Sitearound CM </t>
-  </si>
-  <si>
-    <t>1.เข้าหน้า website www.swiftdynamics.co.th
-2.คลิก Services+
-3.เลือก Sitearound IoT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.เข้าหน้า website www.swiftdynamics.co.th
-2.คลิก Services+
-3.เลือก Sitearound CM 
-</t>
-  </si>
-  <si>
-    <t>ระบบไปยังหน้า website www.sitearound.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sitearound FM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.เข้าหน้า website www.swiftdynamics.co.th
-2.คลิก Services+
-3.เลือก Sitearound FM 
-</t>
-  </si>
-  <si>
-    <t>ระบบไปยังหน้า website www.sitearoundfm.com</t>
-  </si>
-  <si>
-    <t>USE CASES+</t>
-  </si>
-  <si>
-    <t>เมื่อชี้ไปที่ USE CASES+ ระบบแสดงหน้าเมนูเพิ่มเติมดังนี้
-1. Building &amp; Real Estate
-2. Industry 4.0
-3. Warehouse &amp; Logistics
-4. Agriculture
-5. Construction
-6. Healthcare</t>
-  </si>
-  <si>
-    <t>News&amp;Update</t>
-  </si>
-  <si>
-    <t>1.เข้าหน้า website www.swiftdynamics.co.th
-2.คลิก News&amp;Update</t>
-  </si>
-  <si>
-    <t>1.เข้าหน้า website www.swiftdynamics.co.th
-2.USE CASES+</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>1.เข้าหน้า website www.swiftdynamics.co.th
-2.คลิก Company</t>
-  </si>
-  <si>
-    <t>Contact Us</t>
-  </si>
-  <si>
-    <t>1.เข้าหน้า website www.swiftdynamics.co.th
-2.คลิก Contact Us</t>
-  </si>
-  <si>
-    <t>ระบบแสดง form กรอกข้อมูล โดยมีข้อมูลให้กรอกดังนี้
-Name , E-mail , Phone Number , Company Name , Subject , Message</t>
-  </si>
-  <si>
-    <t>Careers+</t>
-  </si>
-  <si>
-    <t>1.เข้าหน้า website www.swiftdynamics.co.th
-2.คลิก Careers+</t>
-  </si>
-  <si>
-    <t>Building &amp; Real Estate</t>
-  </si>
-  <si>
-    <t>1.เข้าหน้า website www.swiftdynamics.co.th
-2.คลิก USE CASES+
-3.เลือก Building &amp; Real Estate</t>
-  </si>
-  <si>
-    <t>ระบบแสดงละเอียดเกี่ยวกับ Building &amp; Real Estate ดังนี้
+    <t>ระบบแสดงละเอียดข้อมูลเกี่ยวกับ Building &amp; Real Estate ดังนี้
 - Building Diagnostics
 - Smart Building
 - Smart Workplace Management
@@ -179,15 +259,7 @@
 - Smart Wastewater Management</t>
   </si>
   <si>
-    <t>Industry 4.0</t>
-  </si>
-  <si>
-    <t>1.เข้าหน้า website www.swiftdynamics.co.th
-2.คลิก USE CASES+
-3.เลือก Industry 4.0</t>
-  </si>
-  <si>
-    <t>ระบบแสดงละเอียดเกี่ยวกับ Industry 4.0 ดังนี้
+    <t>ระบบแสดงละเอียดข้อมูลเกี่ยวกับ Industry 4.0 ดังนี้
 - Predictive Maintenance
 - Smart Factory and Manufacturing
 - Employee Productivity
@@ -196,103 +268,31 @@
 - Smart Wastewater Management</t>
   </si>
   <si>
-    <t>Warehouse &amp; Logistics</t>
-  </si>
-  <si>
-    <t>1.เข้าหน้า website www.swiftdynamics.co.th
-2.คลิก USE CASES+
-3.เลือก Warehouse &amp; Logistics</t>
-  </si>
-  <si>
-    <t>ระบบแสดงละเอียดเกี่ยวกับ Warehouse &amp; Logistics ดังนี้
+    <t>ระบบแสดงละเอียดข้อมูลเกี่ยวกับ Warehouse &amp; Logistics ดังนี้
 - AI Traffic Monitoring
 - Smart Parking
 - Cold-Chain Temperature Monitoring
 - Indoor Tracking</t>
   </si>
   <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
-    <t>1.เข้าหน้า website www.swiftdynamics.co.th
-2.คลิก USE CASES+
-3.เลือก Agriculture</t>
-  </si>
-  <si>
-    <t>ระบบแสดงละเอียดเกี่ยวกับ Agriculture ดังนี้
+    <t>ระบบแสดงละเอียดข้อมูลเกี่ยวกับ Agriculture ดังนี้
 - Smart Water Management
 - Smart Planting
 - Smart Environment
 - Smart Livestock Farm</t>
   </si>
   <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>1.เข้าหน้า website www.swiftdynamics.co.th
-2.คลิก USE CASES+
-3.เลือก Construction</t>
-  </si>
-  <si>
-    <t>ระบบแสดงละเอียดเกี่ยวกับ Construction ดังนี้
+    <t>ระบบแสดงละเอียดข้อมูลเกี่ยวกับ Construction ดังนี้
 - Smart People and Asset Tracking
 - Workflow Automation
 - IoT Construction</t>
   </si>
   <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>1.เข้าหน้า website www.swiftdynamics.co.th
-2.คลิก USE CASES+
-3.เลือก Healthcare</t>
-  </si>
-  <si>
-    <t>ระบบแสดงละเอียดเกี่ยวกับ Healthcare ดังนี้
+    <t>ระบบแสดงละเอียดข้อมูลเกี่ยวกับ Healthcare ดังนี้
 - Vaccine &amp; Drug Temperature Monitoring
 - Remote Patient Monitoring and Tracking
 - Job Dispatching
 - Asset Management</t>
-  </si>
-  <si>
-    <t>CUSTOMER EXPERIENCE</t>
-  </si>
-  <si>
-    <t>ระบบไปยังข้อมูลหน้าของ USE CASES+</t>
-  </si>
-  <si>
-    <t>ORGANIZATIONAL CULTURE</t>
-  </si>
-  <si>
-    <t>1.เข้าหน้า website www.swiftdynamics.co.th
-2.คลิก Customer Experience</t>
-  </si>
-  <si>
-    <t>1.เข้าหน้า website www.swiftdynamics.co.th
-2.คลิก Organizational Culture</t>
-  </si>
-  <si>
-    <t>ระบบไปยังข้อมูลหน้าของ Careers+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">แสดงข้อมูลในหน้า Careers+ โดยมีข้อมูลดังนี้
-- Life at Swift Dynamics
-    - แสดงรูปภาพ , ชื่อ และตำแหน่งการทำงานของแต่ละท่าน
-- LOOKING FOR THE RIGHT POSITION
-    - เมื่อกดเข้าไปจะแสดงตำแหน่งงานที่เปิดรับสมัคร
-</t>
-  </si>
-  <si>
-    <t>แสดงข้อมูลในหน้า Company โดยมีข้อมูลดังนี้
-- Why Swift Dynamics?
-   - แสดงรายละเอียดข้อมูล
-- แสดงรูปภาพ คำคม ชื่อและตำแหน่งงาน
-- Maps , Address , Tel , Business Hours
-   - แสดงรูปภาพแผนที่ ที่อยู่แผนที่ เบอร์โทรติดต่อ และเวลาเปิด-ปิด ทำการ</t>
-  </si>
-  <si>
-    <t>ระบบแสดงข้อมูลรายการ News&amp;Update ล่าสุด
-- แสดงรูปภาพ หัวข้อข่าว วันที่ และ รายละเอียดเพิ่มเติมของข่าว</t>
   </si>
 </sst>
 </file>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6040F4C-2071-4E64-B0D6-678236DA0A48}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -763,175 +763,175 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1">
       <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1">
       <c r="A8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1">
       <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="C9" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="2" customFormat="1" ht="99.95" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1">
       <c r="A15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="C15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1">
       <c r="A16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="C16" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1">
       <c r="A17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1">
       <c r="A18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="C18" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="2" customFormat="1" ht="150" customHeight="1"/>
